--- a/output/fit_clients/fit_round_255.xlsx
+++ b/output/fit_clients/fit_round_255.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2491382310.692024</v>
+        <v>1726882257.570014</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06948602583731964</v>
+        <v>0.08064093888959306</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03586839029798859</v>
+        <v>0.02795486258248355</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1245691217.034141</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1659299783.51911</v>
+        <v>1920387329.739119</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1500242566844088</v>
+        <v>0.1707534050949149</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0497049379370296</v>
+        <v>0.03335315780516619</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>829649879.0476975</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3313580681.879059</v>
+        <v>4492929647.934069</v>
       </c>
       <c r="F4" t="n">
-        <v>0.129034935964072</v>
+        <v>0.1345908907328592</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02599876302207828</v>
+        <v>0.02402558985055558</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>92</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1656790306.483406</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3965523997.645703</v>
+        <v>4033425075.070036</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08895726717429527</v>
+        <v>0.08883697565093317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04711239352205554</v>
+        <v>0.04824107957124178</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1982762004.812247</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2860473284.585658</v>
+        <v>2579798638.952838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1378117267953521</v>
+        <v>0.1075004429804509</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03984788476009084</v>
+        <v>0.04108761192469627</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>41</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1430236578.75396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1927959433.151057</v>
+        <v>2047937390.08652</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06196736944139354</v>
+        <v>0.09651450275265036</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04750536510772238</v>
+        <v>0.04765420125363814</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>80</v>
-      </c>
-      <c r="J7" t="n">
-        <v>963979784.6657268</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3293700564.989959</v>
+        <v>3039243249.26304</v>
       </c>
       <c r="F8" t="n">
-        <v>0.214174027832693</v>
+        <v>0.2094761632837313</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02380859473223081</v>
+        <v>0.03333464010934576</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>81</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1646850370.026727</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1992975451.398275</v>
+        <v>1934271500.165175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1582828203039998</v>
+        <v>0.1845840302256384</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03147806853082679</v>
+        <v>0.02645376412075572</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>996487753.2834908</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4409832051.798825</v>
+        <v>5212538912.208753</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1996537827362132</v>
+        <v>0.1531960381841867</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04101096355726305</v>
+        <v>0.04443545393255088</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>107</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2204916079.498083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3656169945.288989</v>
+        <v>3280192870.740534</v>
       </c>
       <c r="F11" t="n">
-        <v>0.188923408498896</v>
+        <v>0.1690565989738515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03649147003261761</v>
+        <v>0.03611765258646574</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>105</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1828084961.341868</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3199072677.525705</v>
+        <v>2362699864.095125</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1311217717921832</v>
+        <v>0.1579690595870828</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04207753171446398</v>
+        <v>0.04960059021977804</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>85</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1599536375.013179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3241123078.869131</v>
+        <v>4712839802.364648</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09819021378678161</v>
+        <v>0.09864786650563605</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02900281699448401</v>
+        <v>0.0228499455236955</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1620561632.897354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3570659840.903016</v>
+        <v>3235437015.489201</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1684548797091713</v>
+        <v>0.1386935855438275</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0368153042359852</v>
+        <v>0.0441465090015067</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1785329913.553025</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1640958950.024714</v>
+        <v>1637200750.400773</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0808345747856988</v>
+        <v>0.1022923030949411</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03331725316460961</v>
+        <v>0.03992855057641011</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>820479592.4656078</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2542355998.99166</v>
+        <v>2696550476.089521</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1135845725584976</v>
+        <v>0.1159267369246896</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05039919222599665</v>
+        <v>0.04534139937635071</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1271178026.524431</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3826171205.089741</v>
+        <v>4999724213.657168</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1739369503943686</v>
+        <v>0.1642718819359219</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0494885276338955</v>
+        <v>0.04248247564530769</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>74</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1913085645.740617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3858234885.972477</v>
+        <v>3103475697.580042</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1239709251526257</v>
+        <v>0.1229557229488168</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02358700832338821</v>
+        <v>0.03022971805251237</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>83</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1929117411.151073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>977192988.3895662</v>
+        <v>1168836302.613894</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1824312961825642</v>
+        <v>0.1631870999210984</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02146191769842716</v>
+        <v>0.01770225701156797</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>488596517.8606475</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2054661487.781904</v>
+        <v>1862932234.536927</v>
       </c>
       <c r="F20" t="n">
-        <v>0.134481594901114</v>
+        <v>0.157688341656635</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02574275399503628</v>
+        <v>0.03165279896290463</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1027330764.414375</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1869681376.451946</v>
+        <v>1733914319.748663</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07715389185698504</v>
+        <v>0.08311755729105415</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03571486463901574</v>
+        <v>0.03591008520590116</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>934840736.6375679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3594272388.665651</v>
+        <v>3477450303.862324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1146328260433756</v>
+        <v>0.1144096499806951</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05079224723717136</v>
+        <v>0.04886667696904637</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>71</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1797136220.271612</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1260804297.542517</v>
+        <v>987887765.7961253</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1555967393316453</v>
+        <v>0.1204527729390738</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03411043947845823</v>
+        <v>0.04711349923293916</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>630402174.9982855</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3844792049.743145</v>
+        <v>3197853110.471609</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09015144126647895</v>
+        <v>0.1272435502880536</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02402322592947454</v>
+        <v>0.03034362724212896</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>74</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1922396003.294918</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1449782221.929919</v>
+        <v>1045317337.124313</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1125544524912231</v>
+        <v>0.08385128137821636</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02905410940178166</v>
+        <v>0.02143827006077184</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>724891071.4750324</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1089107393.651617</v>
+        <v>1314854229.376384</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1174642487527256</v>
+        <v>0.0981003051313441</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03264293819492989</v>
+        <v>0.03029456346819838</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>544553690.7192119</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4423995578.698565</v>
+        <v>3271132614.298885</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1126524935421423</v>
+        <v>0.1117874792202867</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01954418951664131</v>
+        <v>0.01978832766064513</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>59</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2211997778.460747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3583703304.023788</v>
+        <v>3766242016.394203</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1477716174256943</v>
+        <v>0.1159420199375959</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03490383952563564</v>
+        <v>0.04627113341553805</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1791851713.899268</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3886555364.584025</v>
+        <v>3772899142.513208</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1095049738028411</v>
+        <v>0.1311294742013135</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03596179880557498</v>
+        <v>0.031732013983327</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>113</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1943277706.977901</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2044326679.348953</v>
+        <v>2113071636.225971</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09281795815969607</v>
+        <v>0.1016846216804516</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02812459890494437</v>
+        <v>0.03543424535307604</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1022163382.175909</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>984151517.4776647</v>
+        <v>907037639.1067343</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08381170446133321</v>
+        <v>0.08200619087841628</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05195090164498889</v>
+        <v>0.04127793327589619</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>492075761.0092567</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1758666017.344549</v>
+        <v>1510267707.06065</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07344777211753509</v>
+        <v>0.07720545655616988</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03280253247327715</v>
+        <v>0.02464156584730688</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>879333130.604882</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2223806840.813509</v>
+        <v>2805754659.388872</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1980818710521951</v>
+        <v>0.165550664545718</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04960981280162616</v>
+        <v>0.04511270595908266</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>79</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1111903482.130708</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1153162683.825899</v>
+        <v>1040544278.493781</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09662837015822129</v>
+        <v>0.08008105377209469</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01851893998666609</v>
+        <v>0.02538133844609233</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>576581354.6135162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1135785892.567719</v>
+        <v>1158524291.890503</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08329234213320107</v>
+        <v>0.09245016844273601</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04171532990482085</v>
+        <v>0.03496357177614929</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>567892935.0730171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2539610404.306118</v>
+        <v>2494495671.046663</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1208575789550869</v>
+        <v>0.1129022935049574</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02521412450844983</v>
+        <v>0.01986032611966796</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>64</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1269805220.960548</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2297750915.471065</v>
+        <v>2141406776.316893</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09737061593217532</v>
+        <v>0.1061104227285433</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03353171755055372</v>
+        <v>0.03332506958304968</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>66</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1148875525.951942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2024366866.751742</v>
+        <v>2187625318.687919</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1149594001478307</v>
+        <v>0.08607101045371483</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02897853793537782</v>
+        <v>0.03382688421338695</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1012183408.552886</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1761031372.312589</v>
+        <v>1916715269.510422</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1834283915818976</v>
+        <v>0.1854077241229956</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02578286215581639</v>
+        <v>0.02317579879084641</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>880515716.9893643</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1482697521.352117</v>
+        <v>1732240123.87409</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1262170095563752</v>
+        <v>0.1560211528399323</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04066800623230745</v>
+        <v>0.05920876729127654</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>741348731.209131</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2191433860.628603</v>
+        <v>2212430236.352726</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1343105372024196</v>
+        <v>0.1165690814518609</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03387074102381132</v>
+        <v>0.04644039279975707</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>61</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1095716985.795108</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3381382312.186286</v>
+        <v>4222251250.869382</v>
       </c>
       <c r="F42" t="n">
-        <v>0.118165254354261</v>
+        <v>0.1140219133503352</v>
       </c>
       <c r="G42" t="n">
-        <v>0.046322607039851</v>
+        <v>0.03157795134780288</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>89</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1690691142.771988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2971167856.524072</v>
+        <v>2054556205.009303</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1550838473008626</v>
+        <v>0.1750842047920219</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01606450459833375</v>
+        <v>0.02499837530752057</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>90</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1485583929.523983</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1840150666.322058</v>
+        <v>2005634715.248562</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0822258324542524</v>
+        <v>0.06470123876248614</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02974796803884115</v>
+        <v>0.02420849339396977</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>920075407.5904757</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2275442740.106393</v>
+        <v>1882789832.964804</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1421596362954565</v>
+        <v>0.1924803519382481</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04544619115852235</v>
+        <v>0.04472115332567757</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1137721388.70792</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4005164496.417279</v>
+        <v>5294734122.090549</v>
       </c>
       <c r="F46" t="n">
-        <v>0.160022332957411</v>
+        <v>0.1163415626489089</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05191120232252716</v>
+        <v>0.04370962158705033</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>91</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2002582218.064119</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3151243652.94135</v>
+        <v>5133679967.848428</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1456938059315203</v>
+        <v>0.1906532469358857</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04124364714457208</v>
+        <v>0.0422259520032695</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>68</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1575621777.499028</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3857709452.90317</v>
+        <v>3349035976.063381</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06951347909301732</v>
+        <v>0.07239512833664136</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02451780184052458</v>
+        <v>0.0264082588848636</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>83</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1928854769.108232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1801255597.902701</v>
+        <v>1568533131.123815</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1291144853269459</v>
+        <v>0.1209972112574738</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0352142488456649</v>
+        <v>0.0293717629439461</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>900627784.1214552</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3395646926.148416</v>
+        <v>2864856998.615906</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1592365981403667</v>
+        <v>0.117064103160442</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03967072986530606</v>
+        <v>0.04337375619018882</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>87</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1697823494.768904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1342331917.586736</v>
+        <v>1485969902.70925</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1730202001086306</v>
+        <v>0.1833561153452846</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04784580615151444</v>
+        <v>0.04208055344982219</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>671165987.2783031</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4524247382.921618</v>
+        <v>4710904739.189656</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1370526144245992</v>
+        <v>0.09821805674740207</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03902252695026173</v>
+        <v>0.04537774054938122</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>105</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2262123717.075623</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3243481179.290213</v>
+        <v>3734905385.577505</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1642816901855683</v>
+        <v>0.2018867660167336</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03261848421275813</v>
+        <v>0.03262541763944943</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>73</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1621740605.229641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3196035060.058333</v>
+        <v>3119192042.930932</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1690699836494159</v>
+        <v>0.1301216613326297</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03441315762278604</v>
+        <v>0.04218249216981353</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>83</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1598017530.967258</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4596483163.931314</v>
+        <v>4267746679.393418</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2130088644705462</v>
+        <v>0.2048920829503224</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02758402793166782</v>
+        <v>0.03192688685556599</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2298241583.191373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1215654183.012591</v>
+        <v>1494433455.646456</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1132136583098372</v>
+        <v>0.1383254221141207</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04552195309359183</v>
+        <v>0.03544135527180495</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>607827175.8870215</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2765299877.341439</v>
+        <v>4048377690.245179</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1762390738909397</v>
+        <v>0.1633862619135825</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02010729266743744</v>
+        <v>0.02107477388313044</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>81</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1382649923.362459</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1408715178.443867</v>
+        <v>1661767771.924913</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1556018941522442</v>
+        <v>0.1857290732376704</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0244226723659524</v>
+        <v>0.03108167016920348</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>704357628.6749308</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4174252217.245547</v>
+        <v>3715697155.448525</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09291890623093041</v>
+        <v>0.1236468715265505</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03323993486053008</v>
+        <v>0.03135893267184631</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2087126076.156734</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2701963719.471059</v>
+        <v>3241835039.647664</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1538579213128788</v>
+        <v>0.1767433782516828</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02994204092234946</v>
+        <v>0.02168494984696257</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1350981898.815464</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2147654869.884585</v>
+        <v>2322641007.933548</v>
       </c>
       <c r="F61" t="n">
-        <v>0.133814312031145</v>
+        <v>0.117148229921188</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02654001466734427</v>
+        <v>0.02074783870637494</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1073827495.774239</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1656294262.684192</v>
+        <v>1826441855.963868</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1907096378158518</v>
+        <v>0.1698639266782335</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04630608391004198</v>
+        <v>0.04249241626083367</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>828147137.8082362</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3991525618.321873</v>
+        <v>5579874959.958848</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09264321922389712</v>
+        <v>0.07412516725822475</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03250060794675665</v>
+        <v>0.04496368393544153</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>74</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1995762871.917089</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5054468963.036871</v>
+        <v>4843380485.577394</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1902536911926202</v>
+        <v>0.1162245120918357</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03466915600402043</v>
+        <v>0.02592572586877965</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>79</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2527234591.544324</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5695733853.448589</v>
+        <v>5588619981.42887</v>
       </c>
       <c r="F65" t="n">
-        <v>0.130148997642747</v>
+        <v>0.1712981608360822</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02766833116999563</v>
+        <v>0.0313419684363018</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>91</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2847866844.111372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3506825035.097443</v>
+        <v>5446384415.538554</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09982856018702392</v>
+        <v>0.1291548065908507</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04480629669387862</v>
+        <v>0.03549989838796078</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>74</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1753412464.669556</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3431170351.759</v>
+        <v>2672470419.924055</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06629545911642958</v>
+        <v>0.09167255435309289</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03851893777008186</v>
+        <v>0.03789641201341738</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1715585157.602682</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5319148935.033854</v>
+        <v>3781134921.096326</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1424460828485168</v>
+        <v>0.1318096850734043</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05015437483920487</v>
+        <v>0.04821628559985117</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>84</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2659574543.236398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1677064182.553055</v>
+        <v>1945672000.420609</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1578506911361212</v>
+        <v>0.173204311429825</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05447468225989238</v>
+        <v>0.05925221958421673</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>838532054.4702476</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2814751988.662541</v>
+        <v>3108064419.876119</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09519024401925075</v>
+        <v>0.09901489823312294</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03946893813967771</v>
+        <v>0.03744934147879569</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>73</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1407375959.328681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3493146402.617853</v>
+        <v>4690176423.455886</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1690944338906621</v>
+        <v>0.1431076318863092</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0332358245989389</v>
+        <v>0.02115667505034194</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>93</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1746573194.543936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1945299728.064446</v>
+        <v>1806800856.040229</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1046823291529715</v>
+        <v>0.07066925734355847</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03790144484345585</v>
+        <v>0.04871639143950551</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>972649819.1624643</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2767944490.007837</v>
+        <v>2867909773.93646</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09750609058961168</v>
+        <v>0.08452720001236678</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04284419750485498</v>
+        <v>0.03582520681710985</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>97</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1383972262.226454</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2880767194.892977</v>
+        <v>3115933609.953886</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1421829030370787</v>
+        <v>0.1157582955311837</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03081612588704651</v>
+        <v>0.0220082344333531</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>87</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1440383673.166502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1569745358.438739</v>
+        <v>1509198221.74575</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1326384153339472</v>
+        <v>0.1201250372071037</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03479129627336825</v>
+        <v>0.03694192399955849</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>784872683.6844771</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4245095271.575642</v>
+        <v>3812008243.977184</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08346080807372575</v>
+        <v>0.112771998789916</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02604105223848589</v>
+        <v>0.02570894698203458</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2122547630.742712</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2193959272.748099</v>
+        <v>1990344859.763804</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1321828787350116</v>
+        <v>0.1457851924664701</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01983639504453745</v>
+        <v>0.02564170793212246</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1096979726.567524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3592602799.592323</v>
+        <v>4752610838.734088</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1185756348974325</v>
+        <v>0.1257432488479653</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04583823881705796</v>
+        <v>0.04577793464839206</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>89</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1796301394.670973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1663164935.888858</v>
+        <v>1915799475.134798</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1236052969332953</v>
+        <v>0.1449538680415065</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03293263419215868</v>
+        <v>0.02744005831742613</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>831582530.6520593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5349555793.158627</v>
+        <v>3809213160.809687</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1109604765626347</v>
+        <v>0.09848954685893271</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02450255651560927</v>
+        <v>0.02805977181677112</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>53</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2674777963.15635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4774151716.104845</v>
+        <v>4033111596.120224</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09151898531965179</v>
+        <v>0.1019805386190969</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02807320991384664</v>
+        <v>0.03052247341342278</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2387075849.977682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5647438752.916384</v>
+        <v>3506897241.017289</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2084508419166879</v>
+        <v>0.21026599127635</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02475891639314369</v>
+        <v>0.02559552984632367</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>90</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2823719324.276942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2269236358.060044</v>
+        <v>1605037267.542125</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09536036559373658</v>
+        <v>0.1382252923711231</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03410058090233584</v>
+        <v>0.04405597190218355</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1134618197.864369</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1712170718.780048</v>
+        <v>2539659625.762637</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1179364000671923</v>
+        <v>0.1031728576875148</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04771116390106168</v>
+        <v>0.03815135646371474</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>856085406.5462133</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2427976598.729896</v>
+        <v>2613361596.574381</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1486151177306488</v>
+        <v>0.129612241340852</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03751367883002086</v>
+        <v>0.03475770466182718</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>96</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1213988296.358912</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2561499787.275068</v>
+        <v>1700115147.509887</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1149143779591975</v>
+        <v>0.1528938076942485</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01815978680227463</v>
+        <v>0.0218812565882954</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1280749999.346142</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1295188777.04391</v>
+        <v>1490009315.618557</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1879214080795159</v>
+        <v>0.1450951312305974</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0392743643704076</v>
+        <v>0.04261305990662721</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>647594468.4931792</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2769253092.147329</v>
+        <v>2954603326.31219</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1182443665822306</v>
+        <v>0.1658863042796684</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02989695707931602</v>
+        <v>0.03685618624631588</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>100</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1384626553.701592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3279620280.073925</v>
+        <v>2836154370.52679</v>
       </c>
       <c r="F89" t="n">
-        <v>0.10621282745074</v>
+        <v>0.128016233387603</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03109926229588171</v>
+        <v>0.03695135748013537</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>87</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1639810157.655207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1618239320.18202</v>
+        <v>2151486954.286707</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1249312524179269</v>
+        <v>0.1329256451327497</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0516675441508174</v>
+        <v>0.03541082487579232</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>809119660.4850489</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1892730594.820258</v>
+        <v>1928342698.368301</v>
       </c>
       <c r="F91" t="n">
-        <v>0.138690917626768</v>
+        <v>0.1475717211694741</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06197462158542472</v>
+        <v>0.05995491401984578</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>946365283.9534101</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2615203329.236974</v>
+        <v>2383331556.757752</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1067408049539455</v>
+        <v>0.08347560444593245</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04085453300728778</v>
+        <v>0.03258398460604667</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1307601657.25702</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4465415201.595632</v>
+        <v>4457706714.521605</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09780304663040326</v>
+        <v>0.08832730106541328</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04087252810074988</v>
+        <v>0.04637315036461383</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2232707571.31431</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2516414053.48704</v>
+        <v>1662601228.800578</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1528377980418209</v>
+        <v>0.1457266270975543</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04285915985428194</v>
+        <v>0.02872771619610674</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1258207092.319004</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2197188173.405911</v>
+        <v>2827769523.433492</v>
       </c>
       <c r="F95" t="n">
-        <v>0.102028591744985</v>
+        <v>0.0850657198531324</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0470047566005641</v>
+        <v>0.04550037871856022</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>61</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1098594144.84134</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1940867170.289876</v>
+        <v>2063708829.001326</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09554604250745076</v>
+        <v>0.1396976572028061</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04704788090933847</v>
+        <v>0.03978601265613993</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>970433578.4259609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4844351662.178791</v>
+        <v>3791151177.172165</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1118271227287838</v>
+        <v>0.1096285667643895</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02336653817018698</v>
+        <v>0.02881359841174348</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2422175955.359455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2658414221.883652</v>
+        <v>3521039257.505196</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1119463514251878</v>
+        <v>0.07994353780192356</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02035102288816463</v>
+        <v>0.02402074819384781</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>67</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1329207072.46515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2482046850.140176</v>
+        <v>2640242930.130011</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1085290657095662</v>
+        <v>0.1001631228340768</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03045714723469366</v>
+        <v>0.02977033675721121</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>80</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1241023373.473726</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3344866219.989495</v>
+        <v>4613583755.174577</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1494972723240008</v>
+        <v>0.1480826751033613</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01947503142391323</v>
+        <v>0.02502110912277752</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1672433128.369334</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2241871646.661469</v>
+        <v>2393766033.425804</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2085779345837741</v>
+        <v>0.1533584041140235</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03843763969107594</v>
+        <v>0.04528898177340084</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>103</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1120935812.196911</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_255.xlsx
+++ b/output/fit_clients/fit_round_255.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1726882257.570014</v>
+        <v>1965279383.405903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08064093888959306</v>
+        <v>0.07840814058304262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02795486258248355</v>
+        <v>0.04539392413954714</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1920387329.739119</v>
+        <v>2386797019.330039</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1707534050949149</v>
+        <v>0.1614890094483565</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03335315780516619</v>
+        <v>0.03878153034712214</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4492929647.934069</v>
+        <v>5142451972.636844</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1345908907328592</v>
+        <v>0.1220861249831841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02402558985055558</v>
+        <v>0.03070368626188256</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4033425075.070036</v>
+        <v>2570423794.190705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08883697565093317</v>
+        <v>0.1047838100005293</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04824107957124178</v>
+        <v>0.04059303597067119</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2579798638.952838</v>
+        <v>2791193970.234122</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1075004429804509</v>
+        <v>0.1194022223375113</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04108761192469627</v>
+        <v>0.05335508508290813</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2047937390.08652</v>
+        <v>3009989997.704634</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09651450275265036</v>
+        <v>0.0655150421893015</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04765420125363814</v>
+        <v>0.03386308916059211</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3039243249.26304</v>
+        <v>2627577875.132384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2094761632837313</v>
+        <v>0.1374512049280789</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03333464010934576</v>
+        <v>0.02386937819791662</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1934271500.165175</v>
+        <v>2101911452.356668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1845840302256384</v>
+        <v>0.1256838005365564</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02645376412075572</v>
+        <v>0.02876337832715123</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5212538912.208753</v>
+        <v>5652932355.595826</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1531960381841867</v>
+        <v>0.1447560556754529</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04443545393255088</v>
+        <v>0.03282923564796315</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3280192870.740534</v>
+        <v>3499530030.022069</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1690565989738515</v>
+        <v>0.1290700449690802</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03611765258646574</v>
+        <v>0.04660504609312732</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2362699864.095125</v>
+        <v>3200725987.815112</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1579690595870828</v>
+        <v>0.1700677213550941</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04960059021977804</v>
+        <v>0.05292056277623345</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4712839802.364648</v>
+        <v>3755377622.479839</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09864786650563605</v>
+        <v>0.07817341115599299</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0228499455236955</v>
+        <v>0.02288105065096784</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3235437015.489201</v>
+        <v>3847281827.808047</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1386935855438275</v>
+        <v>0.168870643249625</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0441465090015067</v>
+        <v>0.04032896680387284</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1637200750.400773</v>
+        <v>1438369650.40771</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1022923030949411</v>
+        <v>0.09619969979846314</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03992855057641011</v>
+        <v>0.04109976531872191</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2696550476.089521</v>
+        <v>2065949830.276477</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1159267369246896</v>
+        <v>0.09464355947563755</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04534139937635071</v>
+        <v>0.04431110542619309</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4999724213.657168</v>
+        <v>3572816636.157295</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1642718819359219</v>
+        <v>0.173069875895187</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04248247564530769</v>
+        <v>0.04457894250548194</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3103475697.580042</v>
+        <v>3559585848.242724</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1229557229488168</v>
+        <v>0.1241931548399879</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03022971805251237</v>
+        <v>0.02837380825564319</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1168836302.613894</v>
+        <v>1236150571.912927</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1631870999210984</v>
+        <v>0.1273647384133161</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01770225701156797</v>
+        <v>0.02495365116434459</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1862932234.536927</v>
+        <v>2632281040.580742</v>
       </c>
       <c r="F20" t="n">
-        <v>0.157688341656635</v>
+        <v>0.1380635370767989</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03165279896290463</v>
+        <v>0.02346248987569548</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1733914319.748663</v>
+        <v>2603415494.936822</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08311755729105415</v>
+        <v>0.07749231774379793</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03591008520590116</v>
+        <v>0.0447824387089719</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3477450303.862324</v>
+        <v>4003013215.979361</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1144096499806951</v>
+        <v>0.1102012296656912</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04886667696904637</v>
+        <v>0.04177089493735858</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>987887765.7961253</v>
+        <v>1230358421.149585</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1204527729390738</v>
+        <v>0.174490480372515</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04711349923293916</v>
+        <v>0.04602501167483303</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3197853110.471609</v>
+        <v>2925846781.430312</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1272435502880536</v>
+        <v>0.1335721485045695</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03034362724212896</v>
+        <v>0.02411439644634191</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1045317337.124313</v>
+        <v>1416771080.369637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08385128137821636</v>
+        <v>0.1141367538640438</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02143827006077184</v>
+        <v>0.03055942990028532</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1314854229.376384</v>
+        <v>1349989498.11173</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0981003051313441</v>
+        <v>0.1081090152193061</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03029456346819838</v>
+        <v>0.03000453941779298</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3271132614.298885</v>
+        <v>4431569767.041076</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1117874792202867</v>
+        <v>0.1571668292455627</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01978832766064513</v>
+        <v>0.02284101541118706</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3766242016.394203</v>
+        <v>3467627108.354946</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1159420199375959</v>
+        <v>0.1218019578780607</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04627113341553805</v>
+        <v>0.03719918915303284</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3772899142.513208</v>
+        <v>5548987920.26449</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1311294742013135</v>
+        <v>0.1468107975627606</v>
       </c>
       <c r="G29" t="n">
-        <v>0.031732013983327</v>
+        <v>0.03642968123819411</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2113071636.225971</v>
+        <v>2356951839.640808</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1016846216804516</v>
+        <v>0.1074335696834836</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03543424535307604</v>
+        <v>0.0351949645079928</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>907037639.1067343</v>
+        <v>1133565376.014015</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08200619087841628</v>
+        <v>0.09303084570813598</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04127793327589619</v>
+        <v>0.03953628678854896</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1510267707.06065</v>
+        <v>1565969063.733303</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07720545655616988</v>
+        <v>0.1080940208787452</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02464156584730688</v>
+        <v>0.03351777497740402</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2805754659.388872</v>
+        <v>2037911022.770226</v>
       </c>
       <c r="F33" t="n">
-        <v>0.165550664545718</v>
+        <v>0.185136122152255</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04511270595908266</v>
+        <v>0.03922962013219854</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1040544278.493781</v>
+        <v>1271033076.568472</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08008105377209469</v>
+        <v>0.09261322930180473</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02538133844609233</v>
+        <v>0.02199109268653711</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1158524291.890503</v>
+        <v>909851958.6304723</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09245016844273601</v>
+        <v>0.1048299035274256</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03496357177614929</v>
+        <v>0.03358603881877868</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2494495671.046663</v>
+        <v>2743755729.834452</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1129022935049574</v>
+        <v>0.1735322766685743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01986032611966796</v>
+        <v>0.02020260732153609</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2141406776.316893</v>
+        <v>2585150780.181409</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1061104227285433</v>
+        <v>0.07033070508975744</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03332506958304968</v>
+        <v>0.03537343793049596</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2187625318.687919</v>
+        <v>1948493825.090314</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08607101045371483</v>
+        <v>0.08681615129094886</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03382688421338695</v>
+        <v>0.02517294624235339</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1916715269.510422</v>
+        <v>1912963638.609389</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1854077241229956</v>
+        <v>0.1461126584344428</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02317579879084641</v>
+        <v>0.02694195176036288</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1732240123.87409</v>
+        <v>1334485043.971008</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1560211528399323</v>
+        <v>0.1482294705773181</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05920876729127654</v>
+        <v>0.05902208771843955</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2212430236.352726</v>
+        <v>2375969907.370028</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1165690814518609</v>
+        <v>0.1278452327003246</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04644039279975707</v>
+        <v>0.04701833557202073</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4222251250.869382</v>
+        <v>4264720948.585219</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1140219133503352</v>
+        <v>0.07990210768739846</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03157795134780288</v>
+        <v>0.04082147640674148</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2054556205.009303</v>
+        <v>2567735824.252251</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1750842047920219</v>
+        <v>0.1777116054279079</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02499837530752057</v>
+        <v>0.02116532709728524</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2005634715.248562</v>
+        <v>1642936204.154249</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06470123876248614</v>
+        <v>0.08297326750829935</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02420849339396977</v>
+        <v>0.03454687264087699</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1882789832.964804</v>
+        <v>2502171508.134303</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1924803519382481</v>
+        <v>0.1670627399113814</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04472115332567757</v>
+        <v>0.05031225874061117</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5294734122.090549</v>
+        <v>5068479338.632068</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1163415626489089</v>
+        <v>0.1391351425574912</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04370962158705033</v>
+        <v>0.05996799765029839</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5133679967.848428</v>
+        <v>5088016205.068938</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1906532469358857</v>
+        <v>0.2011959357204376</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0422259520032695</v>
+        <v>0.04960486160409963</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3349035976.063381</v>
+        <v>4238593636.653185</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07239512833664136</v>
+        <v>0.08003287782124793</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0264082588848636</v>
+        <v>0.02607398064633454</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1568533131.123815</v>
+        <v>1621474516.753998</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1209972112574738</v>
+        <v>0.1733544655258202</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0293717629439461</v>
+        <v>0.02759758095874355</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2864856998.615906</v>
+        <v>3878433464.326478</v>
       </c>
       <c r="F50" t="n">
-        <v>0.117064103160442</v>
+        <v>0.115872354405911</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04337375619018882</v>
+        <v>0.04539570801251404</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1485969902.70925</v>
+        <v>1358001570.712759</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1833561153452846</v>
+        <v>0.1505425860941534</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04208055344982219</v>
+        <v>0.05208223297382626</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4710904739.189656</v>
+        <v>3451836504.616651</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09821805674740207</v>
+        <v>0.1382629889279732</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04537774054938122</v>
+        <v>0.04474709557805762</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3734905385.577505</v>
+        <v>2691733528.429585</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2018867660167336</v>
+        <v>0.1526077302929183</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03262541763944943</v>
+        <v>0.02517596548178324</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3119192042.930932</v>
+        <v>3111690031.672578</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1301216613326297</v>
+        <v>0.1599369965289703</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04218249216981353</v>
+        <v>0.03418164191221795</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4267746679.393418</v>
+        <v>3989310669.414082</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2048920829503224</v>
+        <v>0.1893308104051361</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03192688685556599</v>
+        <v>0.02571401838188626</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1494433455.646456</v>
+        <v>1381098273.493473</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1383254221141207</v>
+        <v>0.1274388809640705</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03544135527180495</v>
+        <v>0.04930914760297025</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4048377690.245179</v>
+        <v>2788699620.752645</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1633862619135825</v>
+        <v>0.1688936847370399</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02107477388313044</v>
+        <v>0.02200809383342377</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1661767771.924913</v>
+        <v>1704638129.64208</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1857290732376704</v>
+        <v>0.1694365849124681</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03108167016920348</v>
+        <v>0.0388296583238907</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3715697155.448525</v>
+        <v>4235000401.678831</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1236468715265505</v>
+        <v>0.1103332645468908</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03135893267184631</v>
+        <v>0.03853301498696297</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3241835039.647664</v>
+        <v>2309955993.958784</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1767433782516828</v>
+        <v>0.1651924827439752</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02168494984696257</v>
+        <v>0.02176473120465327</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2322641007.933548</v>
+        <v>3060966697.090468</v>
       </c>
       <c r="F61" t="n">
-        <v>0.117148229921188</v>
+        <v>0.135097046993901</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02074783870637494</v>
+        <v>0.03242542838214638</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1826441855.963868</v>
+        <v>1689401599.00076</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1698639266782335</v>
+        <v>0.1400601829298919</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04249241626083367</v>
+        <v>0.04103079942218208</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5579874959.958848</v>
+        <v>5487556673.132352</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07412516725822475</v>
+        <v>0.08791774307862851</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04496368393544153</v>
+        <v>0.03187179647667538</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4843380485.577394</v>
+        <v>4716414207.427345</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1162245120918357</v>
+        <v>0.1209631711121261</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02592572586877965</v>
+        <v>0.02478346517650168</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5588619981.42887</v>
+        <v>5224094061.532207</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1712981608360822</v>
+        <v>0.1551746882876407</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0313419684363018</v>
+        <v>0.02406765591651298</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5446384415.538554</v>
+        <v>4620395684.956869</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1291548065908507</v>
+        <v>0.1482126534569689</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03549989838796078</v>
+        <v>0.0310801727417433</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2672470419.924055</v>
+        <v>2246631037.744381</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09167255435309289</v>
+        <v>0.07694310979075832</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03789641201341738</v>
+        <v>0.0405837524090867</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3781134921.096326</v>
+        <v>3784080640.211348</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1318096850734043</v>
+        <v>0.1397333952739947</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04821628559985117</v>
+        <v>0.04137047735909544</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1945672000.420609</v>
+        <v>1671563053.372048</v>
       </c>
       <c r="F69" t="n">
-        <v>0.173204311429825</v>
+        <v>0.1483093806154021</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05925221958421673</v>
+        <v>0.04420577721462669</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3108064419.876119</v>
+        <v>2649900035.548738</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09901489823312294</v>
+        <v>0.1005655081210775</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03744934147879569</v>
+        <v>0.03729265945404264</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4690176423.455886</v>
+        <v>5001155297.439823</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1431076318863092</v>
+        <v>0.1361307187066204</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02115667505034194</v>
+        <v>0.03123442888806987</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1806800856.040229</v>
+        <v>2272798774.235167</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07066925734355847</v>
+        <v>0.07267070375860137</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04871639143950551</v>
+        <v>0.04869401895690204</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2867909773.93646</v>
+        <v>3546351031.599066</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08452720001236678</v>
+        <v>0.08030194501705039</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03582520681710985</v>
+        <v>0.03965086513146002</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3115933609.953886</v>
+        <v>3525809603.279922</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1157582955311837</v>
+        <v>0.1112787445617584</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0220082344333531</v>
+        <v>0.0278057351595425</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1509198221.74575</v>
+        <v>1837331382.599863</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1201250372071037</v>
+        <v>0.1490219600021938</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03694192399955849</v>
+        <v>0.03292455795150392</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3812008243.977184</v>
+        <v>4568241892.984928</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112771998789916</v>
+        <v>0.07882584478262497</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02570894698203458</v>
+        <v>0.02613164523671569</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1990344859.763804</v>
+        <v>1906442220.740585</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1457851924664701</v>
+        <v>0.1401108280853345</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02564170793212246</v>
+        <v>0.03091932019269511</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4752610838.734088</v>
+        <v>3913196881.064782</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1257432488479653</v>
+        <v>0.1066902527839035</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04577793464839206</v>
+        <v>0.05710239379353416</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1915799475.134798</v>
+        <v>1627337154.535657</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1449538680415065</v>
+        <v>0.159779505925927</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02744005831742613</v>
+        <v>0.02821810394231499</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3809213160.809687</v>
+        <v>3459295683.075194</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09848954685893271</v>
+        <v>0.07401326922452292</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02805977181677112</v>
+        <v>0.03564161658037288</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4033111596.120224</v>
+        <v>3340338170.899833</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1019805386190969</v>
+        <v>0.1331772997898132</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03052247341342278</v>
+        <v>0.03092825860913213</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3506897241.017289</v>
+        <v>5238285423.043362</v>
       </c>
       <c r="F82" t="n">
-        <v>0.21026599127635</v>
+        <v>0.1806874852278197</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02559552984632367</v>
+        <v>0.01882776915659076</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1605037267.542125</v>
+        <v>2325444231.386525</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1382252923711231</v>
+        <v>0.1433123555233947</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04405597190218355</v>
+        <v>0.0320256365889667</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2539659625.762637</v>
+        <v>1741438762.622197</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1031728576875148</v>
+        <v>0.1075167541239809</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03815135646371474</v>
+        <v>0.05206898460074321</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2613361596.574381</v>
+        <v>2810114607.126426</v>
       </c>
       <c r="F85" t="n">
-        <v>0.129612241340852</v>
+        <v>0.1588826324940768</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03475770466182718</v>
+        <v>0.04776930426365904</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1700115147.509887</v>
+        <v>2203582961.502244</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1528938076942485</v>
+        <v>0.1155369231297114</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0218812565882954</v>
+        <v>0.02265452911543946</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1490009315.618557</v>
+        <v>1230376643.51517</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1450951312305974</v>
+        <v>0.1659580917756184</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04261305990662721</v>
+        <v>0.0438300665628864</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2954603326.31219</v>
+        <v>3565496702.873488</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1658863042796684</v>
+        <v>0.1331017086502413</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03685618624631588</v>
+        <v>0.03386893980974819</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2836154370.52679</v>
+        <v>3258752398.971979</v>
       </c>
       <c r="F89" t="n">
-        <v>0.128016233387603</v>
+        <v>0.1408935273579862</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03695135748013537</v>
+        <v>0.03942619965953256</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2151486954.286707</v>
+        <v>2109360570.387244</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1329256451327497</v>
+        <v>0.1226612187727377</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03541082487579232</v>
+        <v>0.04403713389717893</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1928342698.368301</v>
+        <v>1400238817.812386</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1475717211694741</v>
+        <v>0.195685870373333</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05995491401984578</v>
+        <v>0.05574812762058216</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2383331556.757752</v>
+        <v>2727202503.865133</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08347560444593245</v>
+        <v>0.0675547241156516</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03258398460604667</v>
+        <v>0.02944858534994446</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4457706714.521605</v>
+        <v>3156545989.846782</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08832730106541328</v>
+        <v>0.08680968682522643</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04637315036461383</v>
+        <v>0.05368216326862883</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1662601228.800578</v>
+        <v>2316820283.042965</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1457266270975543</v>
+        <v>0.1095872191710871</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02872771619610674</v>
+        <v>0.03452712360215192</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2827769523.433492</v>
+        <v>2120340962.156011</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0850657198531324</v>
+        <v>0.1231753767400717</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04550037871856022</v>
+        <v>0.04670436724137805</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2063708829.001326</v>
+        <v>2391965636.41455</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1396976572028061</v>
+        <v>0.1000776544667889</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03978601265613993</v>
+        <v>0.04521007306404765</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3791151177.172165</v>
+        <v>3614388895.653766</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1096285667643895</v>
+        <v>0.1474190893667491</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02881359841174348</v>
+        <v>0.02358359231615127</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3521039257.505196</v>
+        <v>3605392614.501803</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07994353780192356</v>
+        <v>0.07866568752180247</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02402074819384781</v>
+        <v>0.02684729106959078</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2640242930.130011</v>
+        <v>2370116366.907171</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1001631228340768</v>
+        <v>0.122923108694285</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02977033675721121</v>
+        <v>0.02680961381192647</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4613583755.174577</v>
+        <v>4602937696.954623</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1480826751033613</v>
+        <v>0.1531254874403803</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02502110912277752</v>
+        <v>0.02637692476708847</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2393766033.425804</v>
+        <v>2211330318.684199</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1533584041140235</v>
+        <v>0.2180319585666936</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04528898177340084</v>
+        <v>0.05778296543494246</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_255.xlsx
+++ b/output/fit_clients/fit_round_255.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1965279383.405903</v>
+        <v>2018543206.940613</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07840814058304262</v>
+        <v>0.09621889161326508</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04539392413954714</v>
+        <v>0.03307745584399356</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2386797019.330039</v>
+        <v>2515646312.137932</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1614890094483565</v>
+        <v>0.138444810761775</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03878153034712214</v>
+        <v>0.03832861576495442</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5142451972.636844</v>
+        <v>4621811359.647542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1220861249831841</v>
+        <v>0.1230114948756957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03070368626188256</v>
+        <v>0.02416589014529883</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>137</v>
+      </c>
+      <c r="J4" t="n">
+        <v>255</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2570423794.190705</v>
+        <v>3760060809.193629</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1047838100005293</v>
+        <v>0.07187342861605589</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04059303597067119</v>
+        <v>0.03457166598453459</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>104</v>
+      </c>
+      <c r="J5" t="n">
+        <v>255</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2791193970.234122</v>
+        <v>2074213717.302166</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1194022223375113</v>
+        <v>0.1186407972772603</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05335508508290813</v>
+        <v>0.05592133770973327</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3009989997.704634</v>
+        <v>2589696192.886769</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0655150421893015</v>
+        <v>0.09162597382985724</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03386308916059211</v>
+        <v>0.02990748702430183</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2627577875.132384</v>
+        <v>3897335117.628908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1374512049280789</v>
+        <v>0.1926579559766826</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02386937819791662</v>
+        <v>0.02260838983222501</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2101911452.356668</v>
+        <v>1575687564.64196</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1256838005365564</v>
+        <v>0.1312266129440098</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02876337832715123</v>
+        <v>0.03646196444416319</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5652932355.595826</v>
+        <v>3935722704.725902</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1447560556754529</v>
+        <v>0.1986645467853137</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03282923564796315</v>
+        <v>0.03474480048368707</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>231</v>
+      </c>
+      <c r="J10" t="n">
+        <v>254</v>
+      </c>
+      <c r="K10" t="n">
+        <v>92.48327515534694</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3499530030.022069</v>
+        <v>3340139864.169333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1290700449690802</v>
+        <v>0.1250530169337639</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04660504609312732</v>
+        <v>0.04851667805437029</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>103</v>
+      </c>
+      <c r="J11" t="n">
+        <v>249</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3200725987.815112</v>
+        <v>2956759431.619918</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1700677213550941</v>
+        <v>0.130534291783117</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05292056277623345</v>
+        <v>0.05215369641407362</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3755377622.479839</v>
+        <v>3522479202.316303</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07817341115599299</v>
+        <v>0.07006937153373452</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02288105065096784</v>
+        <v>0.02493724980198951</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>129</v>
+      </c>
+      <c r="J13" t="n">
+        <v>255</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3847281827.808047</v>
+        <v>3279840199.106121</v>
       </c>
       <c r="F14" t="n">
-        <v>0.168870643249625</v>
+        <v>0.1797821663686928</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04032896680387284</v>
+        <v>0.03170210583081346</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>253</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1438369650.40771</v>
+        <v>1160380820.143613</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09619969979846314</v>
+        <v>0.08874111722194697</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04109976531872191</v>
+        <v>0.03345320915139009</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +993,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2065949830.276477</v>
+        <v>2289962938.200545</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09464355947563755</v>
+        <v>0.1084126042359937</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04431110542619309</v>
+        <v>0.04999191268667712</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3572816636.157295</v>
+        <v>3510358210.570385</v>
       </c>
       <c r="F17" t="n">
-        <v>0.173069875895187</v>
+        <v>0.1551664647499148</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04457894250548194</v>
+        <v>0.03676570653499142</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>122</v>
+      </c>
+      <c r="J17" t="n">
+        <v>252</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1057,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3559585848.242724</v>
+        <v>3240422057.371244</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1241931548399879</v>
+        <v>0.1798241905008674</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02837380825564319</v>
+        <v>0.02694988760198835</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>254</v>
+      </c>
+      <c r="K18" t="n">
+        <v>63.89021931006825</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1236150571.912927</v>
+        <v>1040602708.196208</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1273647384133161</v>
+        <v>0.116600166270655</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02495365116434459</v>
+        <v>0.01874711611700506</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2632281040.580742</v>
+        <v>1801486400.175691</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1380635370767989</v>
+        <v>0.1157376579701846</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02346248987569548</v>
+        <v>0.03047878786093142</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2603415494.936822</v>
+        <v>2544635531.867291</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07749231774379793</v>
+        <v>0.09725987057992139</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0447824387089719</v>
+        <v>0.03947977228413007</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4003013215.979361</v>
+        <v>3048750114.624531</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1102012296656912</v>
+        <v>0.1091573150490135</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04177089493735858</v>
+        <v>0.05680555566509275</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>66</v>
+      </c>
+      <c r="J22" t="n">
+        <v>252</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1230358421.149585</v>
+        <v>1397592243.213358</v>
       </c>
       <c r="F23" t="n">
-        <v>0.174490480372515</v>
+        <v>0.1786650703325461</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04602501167483303</v>
+        <v>0.0340643370414059</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1275,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2925846781.430312</v>
+        <v>3947473705.546671</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1335721485045695</v>
+        <v>0.1457347029134107</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02411439644634191</v>
+        <v>0.02477896478632644</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>255</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1416771080.369637</v>
+        <v>1324297807.092301</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1141367538640438</v>
+        <v>0.1118989829818887</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03055942990028532</v>
+        <v>0.02759556109144951</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1349989498.11173</v>
+        <v>1191343937.936924</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1081090152193061</v>
+        <v>0.07791853791340221</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03000453941779298</v>
+        <v>0.02724695112001368</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4431569767.041076</v>
+        <v>4720211671.282722</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1571668292455627</v>
+        <v>0.1483024166296421</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02284101541118706</v>
+        <v>0.01866243736020334</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>103</v>
+      </c>
+      <c r="J27" t="n">
+        <v>255</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1415,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3467627108.354946</v>
+        <v>2860270819.911748</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1218019578780607</v>
+        <v>0.1358453089805678</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03719918915303284</v>
+        <v>0.04623812938442061</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>51</v>
+      </c>
+      <c r="J28" t="n">
+        <v>254</v>
+      </c>
+      <c r="K28" t="n">
+        <v>49.61976762638105</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5548987920.26449</v>
+        <v>5591010311.339139</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1468107975627606</v>
+        <v>0.1371255285341212</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03642968123819411</v>
+        <v>0.03677708079607068</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>243</v>
+      </c>
+      <c r="J29" t="n">
+        <v>255</v>
+      </c>
+      <c r="K29" t="n">
+        <v>106.4107483064551</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2356951839.640808</v>
+        <v>1463887174.653959</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1074335696834836</v>
+        <v>0.1355621260026133</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0351949645079928</v>
+        <v>0.0368974582460777</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1133565376.014015</v>
+        <v>1420638192.835266</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09303084570813598</v>
+        <v>0.09509114403381334</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03953628678854896</v>
+        <v>0.04000834146872994</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1565969063.733303</v>
+        <v>1576431414.76273</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1080940208787452</v>
+        <v>0.08056439976028759</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03351777497740402</v>
+        <v>0.02826705549133823</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2037911022.770226</v>
+        <v>2476592898.250406</v>
       </c>
       <c r="F33" t="n">
-        <v>0.185136122152255</v>
+        <v>0.1985649804031479</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03922962013219854</v>
+        <v>0.0482672470311936</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1271033076.568472</v>
+        <v>990265237.4786168</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09261322930180473</v>
+        <v>0.1164521849829801</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02199109268653711</v>
+        <v>0.01978827251801996</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>909851958.6304723</v>
+        <v>1248310135.824568</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1048299035274256</v>
+        <v>0.08093153164932114</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03358603881877868</v>
+        <v>0.03776543793019155</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2743755729.834452</v>
+        <v>1976075882.600163</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1735322766685743</v>
+        <v>0.1661480028878963</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02020260732153609</v>
+        <v>0.02671950235405738</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2585150780.181409</v>
+        <v>2573400746.621233</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07033070508975744</v>
+        <v>0.08957283037894966</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03537343793049596</v>
+        <v>0.04043302839884852</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1948493825.090314</v>
+        <v>1885758390.194368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08681615129094886</v>
+        <v>0.1173939292916388</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02517294624235339</v>
+        <v>0.03523795443245025</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1912963638.609389</v>
+        <v>2092629383.798568</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1461126584344428</v>
+        <v>0.1214057015446856</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02694195176036288</v>
+        <v>0.02559271172707691</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1334485043.971008</v>
+        <v>1406429663.792374</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1482294705773181</v>
+        <v>0.09923400245826489</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05902208771843955</v>
+        <v>0.03729709069695455</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2375969907.370028</v>
+        <v>2818990422.119565</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1278452327003246</v>
+        <v>0.1552838158944346</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04701833557202073</v>
+        <v>0.0453113230821675</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4264720948.585219</v>
+        <v>3634947899.304775</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07990210768739846</v>
+        <v>0.1111825342104956</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04082147640674148</v>
+        <v>0.02889494662764863</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>106</v>
+      </c>
+      <c r="J42" t="n">
+        <v>254</v>
+      </c>
+      <c r="K42" t="n">
+        <v>81.7696994595004</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2567735824.252251</v>
+        <v>2989733921.79805</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1777116054279079</v>
+        <v>0.1885751659361478</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02116532709728524</v>
+        <v>0.02403441920799717</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1642936204.154249</v>
+        <v>1439699653.577911</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08297326750829935</v>
+        <v>0.07695695899853661</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03454687264087699</v>
+        <v>0.02691176143787169</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2502171508.134303</v>
+        <v>1891127473.150908</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1670627399113814</v>
+        <v>0.1298515409208791</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05031225874061117</v>
+        <v>0.05189853974317602</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5068479338.632068</v>
+        <v>5381611139.472691</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1391351425574912</v>
+        <v>0.1191329005470742</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05996799765029839</v>
+        <v>0.03709467357154839</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>147</v>
+      </c>
+      <c r="J46" t="n">
+        <v>255</v>
+      </c>
+      <c r="K46" t="n">
+        <v>102.6302505706587</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5088016205.068938</v>
+        <v>4333779907.413433</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2011959357204376</v>
+        <v>0.1456876377669202</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04960486160409963</v>
+        <v>0.05462149450419183</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>115</v>
+      </c>
+      <c r="J47" t="n">
+        <v>254</v>
+      </c>
+      <c r="K47" t="n">
+        <v>84.09809426215786</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4238593636.653185</v>
+        <v>3131813854.219889</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08003287782124793</v>
+        <v>0.1080262150968034</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02607398064633454</v>
+        <v>0.02969682438658331</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>126</v>
+      </c>
+      <c r="J48" t="n">
+        <v>252</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1621474516.753998</v>
+        <v>1855871556.198862</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1733544655258202</v>
+        <v>0.1836929423013972</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02759758095874355</v>
+        <v>0.03253046311588758</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3878433464.326478</v>
+        <v>4070959551.07133</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115872354405911</v>
+        <v>0.1379530362304212</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04539570801251404</v>
+        <v>0.03549354075545518</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>254</v>
+      </c>
+      <c r="K50" t="n">
+        <v>98.2238980047474</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1358001570.712759</v>
+        <v>1349992142.027006</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1505425860941534</v>
+        <v>0.1484663584895625</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05208223297382626</v>
+        <v>0.03395207965717272</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3451836504.616651</v>
+        <v>4931335337.555695</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1382629889279732</v>
+        <v>0.1172353272248543</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04474709557805762</v>
+        <v>0.0405930652311806</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>163</v>
+      </c>
+      <c r="J52" t="n">
+        <v>255</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2691733528.429585</v>
+        <v>3092154247.831753</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1526077302929183</v>
+        <v>0.1913346701370554</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02517596548178324</v>
+        <v>0.02378319001936386</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>250</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3111690031.672578</v>
+        <v>4625663717.185932</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1599369965289703</v>
+        <v>0.1663802946268935</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03418164191221795</v>
+        <v>0.04367259476788286</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>134</v>
+      </c>
+      <c r="J54" t="n">
+        <v>255</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3989310669.414082</v>
+        <v>3366328514.330928</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1893308104051361</v>
+        <v>0.1489900187195343</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02571401838188626</v>
+        <v>0.02733658073285803</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>114</v>
+      </c>
+      <c r="J55" t="n">
+        <v>254</v>
+      </c>
+      <c r="K55" t="n">
+        <v>65.30982382627825</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1381098273.493473</v>
+        <v>1446163983.928459</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1274388809640705</v>
+        <v>0.1262357036668802</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04930914760297025</v>
+        <v>0.04809897530378617</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2788699620.752645</v>
+        <v>4049807813.736385</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1688936847370399</v>
+        <v>0.1651985020605553</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02200809383342377</v>
+        <v>0.01781813215573284</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>101</v>
+      </c>
+      <c r="J57" t="n">
+        <v>255</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1704638129.64208</v>
+        <v>1894429760.459412</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1694365849124681</v>
+        <v>0.1992007763309455</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0388296583238907</v>
+        <v>0.03223282944126297</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2514,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4235000401.678831</v>
+        <v>5365691273.951771</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1103332645468908</v>
+        <v>0.09930605905439324</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03853301498696297</v>
+        <v>0.04127818000452438</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>123</v>
+      </c>
+      <c r="J59" t="n">
+        <v>254</v>
+      </c>
+      <c r="K59" t="n">
+        <v>92.3727379496878</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2309955993.958784</v>
+        <v>2950955108.759593</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1651924827439752</v>
+        <v>0.144673804104964</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02176473120465327</v>
+        <v>0.0302141817980527</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3060966697.090468</v>
+        <v>2174059926.204589</v>
       </c>
       <c r="F61" t="n">
-        <v>0.135097046993901</v>
+        <v>0.1645239961090291</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03242542838214638</v>
+        <v>0.02479491143145064</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1689401599.00076</v>
+        <v>1824490743.435044</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1400601829298919</v>
+        <v>0.1694526983894737</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04103079942218208</v>
+        <v>0.03865292026721673</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5487556673.132352</v>
+        <v>5296162261.466519</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08791774307862851</v>
+        <v>0.06980705871353296</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03187179647667538</v>
+        <v>0.03322954843855287</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>124</v>
+      </c>
+      <c r="J63" t="n">
+        <v>255</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4716414207.427345</v>
+        <v>5498449706.914865</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1209631711121261</v>
+        <v>0.1529610094154326</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02478346517650168</v>
+        <v>0.02943357978427087</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>125</v>
+      </c>
+      <c r="J64" t="n">
+        <v>255</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5224094061.532207</v>
+        <v>4597371388.441628</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1551746882876407</v>
+        <v>0.1179289683102313</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02406765591651298</v>
+        <v>0.02530187515267198</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>204</v>
+      </c>
+      <c r="J65" t="n">
+        <v>255</v>
+      </c>
+      <c r="K65" t="n">
+        <v>101.5998733680538</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4620395684.956869</v>
+        <v>3735694726.971272</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1482126534569689</v>
+        <v>0.1081997864649813</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0310801727417433</v>
+        <v>0.046095375444149</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>126</v>
+      </c>
+      <c r="J66" t="n">
+        <v>254</v>
+      </c>
+      <c r="K66" t="n">
+        <v>72.91484736811668</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2246631037.744381</v>
+        <v>2695549915.532084</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07694310979075832</v>
+        <v>0.0843104681077974</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0405837524090867</v>
+        <v>0.03222311289334434</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3784080640.211348</v>
+        <v>5996038439.041971</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1397333952739947</v>
+        <v>0.1338128965707369</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04137047735909544</v>
+        <v>0.03783300129679993</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>130</v>
+      </c>
+      <c r="J68" t="n">
+        <v>254</v>
+      </c>
+      <c r="K68" t="n">
+        <v>99.82755605306009</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1671563053.372048</v>
+        <v>2099977045.667538</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1483093806154021</v>
+        <v>0.1504260959202418</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04420577721462669</v>
+        <v>0.05613249558059098</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2649900035.548738</v>
+        <v>2929763206.336553</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1005655081210775</v>
+        <v>0.06969552538998279</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03729265945404264</v>
+        <v>0.0345490576946129</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5001155297.439823</v>
+        <v>4781174643.819637</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1361307187066204</v>
+        <v>0.1766113838562892</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03123442888806987</v>
+        <v>0.02993872463966861</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>193</v>
+      </c>
+      <c r="J71" t="n">
+        <v>255</v>
+      </c>
+      <c r="K71" t="n">
+        <v>102.7197066699797</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2272798774.235167</v>
+        <v>1717636792.466031</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07267070375860137</v>
+        <v>0.1037343303178194</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04869401895690204</v>
+        <v>0.05154223052713973</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3546351031.599066</v>
+        <v>3465425022.672614</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08030194501705039</v>
+        <v>0.09205694263768591</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03965086513146002</v>
+        <v>0.03497881910659538</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3049,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3525809603.279922</v>
+        <v>3469864087.530386</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1112787445617584</v>
+        <v>0.1595490995801552</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0278057351595425</v>
+        <v>0.02860467880406531</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="n">
+        <v>74.41455249116666</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1837331382.599863</v>
+        <v>2500950214.985271</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1490219600021938</v>
+        <v>0.1123540248051381</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03292455795150392</v>
+        <v>0.0336759576013266</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4568241892.984928</v>
+        <v>3439256585.726696</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07882584478262497</v>
+        <v>0.1226038920173485</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02613164523671569</v>
+        <v>0.0219188871732965</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>119</v>
+      </c>
+      <c r="J76" t="n">
+        <v>254</v>
+      </c>
+      <c r="K76" t="n">
+        <v>61.18092925187199</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1906442220.740585</v>
+        <v>1859313313.071998</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1401108280853345</v>
+        <v>0.1274635032448501</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03091932019269511</v>
+        <v>0.02581821472931106</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3913196881.064782</v>
+        <v>4783135986.94375</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1066902527839035</v>
+        <v>0.09702963264558337</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05710239379353416</v>
+        <v>0.05624182076780346</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>127</v>
+      </c>
+      <c r="J78" t="n">
+        <v>255</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1627337154.535657</v>
+        <v>1795892220.50824</v>
       </c>
       <c r="F79" t="n">
-        <v>0.159779505925927</v>
+        <v>0.1288910327471512</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02821810394231499</v>
+        <v>0.03626331609152083</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3459295683.075194</v>
+        <v>4340824202.003534</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07401326922452292</v>
+        <v>0.110522393454637</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03564161658037288</v>
+        <v>0.02718586743156599</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>124</v>
+      </c>
+      <c r="J80" t="n">
+        <v>255</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3340338170.899833</v>
+        <v>4907959591.856318</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1331772997898132</v>
+        <v>0.1062852471520665</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03092825860913213</v>
+        <v>0.0234862973369937</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>116</v>
+      </c>
+      <c r="J81" t="n">
+        <v>255</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5238285423.043362</v>
+        <v>5307987941.823806</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1806874852278197</v>
+        <v>0.1945917791513347</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01882776915659076</v>
+        <v>0.018296987586471</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>193</v>
+      </c>
+      <c r="J82" t="n">
+        <v>255</v>
+      </c>
+      <c r="K82" t="n">
+        <v>101.0547280811171</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2325444231.386525</v>
+        <v>2403420065.875301</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1433123555233947</v>
+        <v>0.1282830404949949</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0320256365889667</v>
+        <v>0.03307687265718125</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1741438762.622197</v>
+        <v>2266259351.96356</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1075167541239809</v>
+        <v>0.1140539062137644</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05206898460074321</v>
+        <v>0.03770262615665783</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2810114607.126426</v>
+        <v>2394987451.876548</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1588826324940768</v>
+        <v>0.1821451620668422</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04776930426365904</v>
+        <v>0.04391821399884611</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2203582961.502244</v>
+        <v>2440659488.408187</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1155369231297114</v>
+        <v>0.1653028208376155</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02265452911543946</v>
+        <v>0.02431700246790218</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1230376643.51517</v>
+        <v>1420072056.148379</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1659580917756184</v>
+        <v>0.1333231512019392</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0438300665628864</v>
+        <v>0.04420389861531421</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3565496702.873488</v>
+        <v>3721802134.876114</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1331017086502413</v>
+        <v>0.1496046757008542</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03386893980974819</v>
+        <v>0.02733939823594048</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>37</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3258752398.971979</v>
+        <v>3109842426.732232</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1408935273579862</v>
+        <v>0.1290091123210454</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03942619965953256</v>
+        <v>0.03842433790152643</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2109360570.387244</v>
+        <v>1780894640.953095</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1226612187727377</v>
+        <v>0.1157151577030099</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04403713389717893</v>
+        <v>0.04299522011482363</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1400238817.812386</v>
+        <v>1703573499.159836</v>
       </c>
       <c r="F91" t="n">
-        <v>0.195685870373333</v>
+        <v>0.1569392800810712</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05574812762058216</v>
+        <v>0.05268631112860063</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2727202503.865133</v>
+        <v>2411263690.156315</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0675547241156516</v>
+        <v>0.07816935244057274</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02944858534994446</v>
+        <v>0.03182254435807934</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3156545989.846782</v>
+        <v>4474225451.702106</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08680968682522643</v>
+        <v>0.1083943769938316</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05368216326862883</v>
+        <v>0.034172149218959</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>113</v>
+      </c>
+      <c r="J93" t="n">
+        <v>254</v>
+      </c>
+      <c r="K93" t="n">
+        <v>98.0026708772193</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2316820283.042965</v>
+        <v>2057896843.519251</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1095872191710871</v>
+        <v>0.1576785156179771</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03452712360215192</v>
+        <v>0.03826210167232307</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2120340962.156011</v>
+        <v>3086553687.984344</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1231753767400717</v>
+        <v>0.0951992215155724</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04670436724137805</v>
+        <v>0.0350685149159367</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2391965636.41455</v>
+        <v>1567238418.656865</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1000776544667889</v>
+        <v>0.129130481236727</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04521007306404765</v>
+        <v>0.02894596592981881</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3614388895.653766</v>
+        <v>4314799752.163922</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1474190893667491</v>
+        <v>0.165508998118238</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02358359231615127</v>
+        <v>0.02035117310711637</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>125</v>
+      </c>
+      <c r="J97" t="n">
+        <v>254</v>
+      </c>
+      <c r="K97" t="n">
+        <v>100.6213992664278</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3605392614.501803</v>
+        <v>2942581986.469291</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07866568752180247</v>
+        <v>0.08594453940368704</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02684729106959078</v>
+        <v>0.02338686401640092</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>62</v>
+      </c>
+      <c r="J98" t="n">
+        <v>253</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2370116366.907171</v>
+        <v>2635809759.024069</v>
       </c>
       <c r="F99" t="n">
-        <v>0.122923108694285</v>
+        <v>0.1159363221024776</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02680961381192647</v>
+        <v>0.03224018619113606</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4602937696.954623</v>
+        <v>4180542307.950069</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1531254874403803</v>
+        <v>0.10848672979795</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02637692476708847</v>
+        <v>0.0175979516373413</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>107</v>
+      </c>
+      <c r="J100" t="n">
+        <v>254</v>
+      </c>
+      <c r="K100" t="n">
+        <v>100.2500512868846</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2211330318.684199</v>
+        <v>2523778156.630891</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2180319585666936</v>
+        <v>0.1929017906514816</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05778296543494246</v>
+        <v>0.05492369335748246</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>251</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
